--- a/MasterData/MstData_Table.xlsx
+++ b/MasterData/MstData_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\UnityProject\SampleShogi\Assets\0_Projects\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0193765-9311-47C5-AC59-85C5CC5CAB05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ECB109-3EDC-444A-9BF4-6970AC0D20EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23865" yWindow="810" windowWidth="19425" windowHeight="10425" xr2:uid="{B18A1AB9-D785-4B89-B32D-769B7A4E7186}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B18A1AB9-D785-4B89-B32D-769B7A4E7186}"/>
   </bookViews>
   <sheets>
     <sheet name="TopTableList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2"/>
@@ -36,14 +36,6 @@
   </si>
   <si>
     <t>AssetName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MovePattern1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MovePattern2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -545,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B8D6DD-2FBB-42FF-86B7-917022EFC8B5}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -556,11 +548,10 @@
     <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,195 +562,184 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E101" xr:uid="{D5FC98AC-93B5-4BAC-9ECB-914E34346A4C}">
-      <formula1>"SHALLOW,TROPICAL,ICE_COLD"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
